--- a/Planilha de gastos.xlsx
+++ b/Planilha de gastos.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{107623AA-4F9B-4B3C-BA96-4ACA90A6411B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93BB5B98-088A-4302-95B4-410835E6DB50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{78A6F722-CF48-4EA1-B72A-21C51945829A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{DFF88D8F-CCC8-4F9C-8E70-63B84F69510C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,85 +29,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
-    <t>Gastos mensais</t>
+    <t>Valores Consumidos</t>
   </si>
   <si>
-    <t>Nome da despesa</t>
+    <t>Gastos</t>
   </si>
   <si>
-    <t>valor</t>
+    <t>Valor</t>
   </si>
   <si>
-    <t>Telefone</t>
+    <t>Grau de importância</t>
   </si>
   <si>
-    <t>tv a cabo</t>
+    <t>Agua</t>
   </si>
   <si>
-    <t>alimentação</t>
+    <t>luz</t>
   </si>
   <si>
-    <t xml:space="preserve">Água </t>
+    <t>Celular</t>
   </si>
   <si>
-    <t>Luz</t>
+    <t>gás</t>
   </si>
   <si>
-    <t>Internet</t>
+    <t>internet</t>
   </si>
   <si>
-    <t>80.00</t>
+    <t>Prestacão do celular</t>
   </si>
   <si>
-    <t>120.00</t>
+    <t>Academia</t>
   </si>
   <si>
-    <t>960.00</t>
-  </si>
-  <si>
-    <t>300.00</t>
+    <t>Alimentação</t>
   </si>
   <si>
     <t>Aluguel</t>
   </si>
   <si>
-    <t>900.00</t>
+    <t>Prioridade alta</t>
   </si>
   <si>
-    <t>Seguro da Moto</t>
+    <t>Prioridade Média</t>
   </si>
   <si>
-    <t>126.00</t>
+    <t>Prioridade baixa</t>
   </si>
   <si>
-    <t>90.00</t>
+    <t>Entrada</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Saída</t>
   </si>
   <si>
-    <t>2,656.00</t>
+    <t>Rótulos de Coluna</t>
   </si>
   <si>
-    <t>Grau de importância</t>
+    <t>Total Geral</t>
   </si>
   <si>
-    <t>Muito importante</t>
+    <t>Soma de R$ 50,00</t>
   </si>
   <si>
-    <t>Média importância</t>
-  </si>
-  <si>
-    <t>Baixa importância</t>
+    <t>Rótulos de Linha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +112,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,24 +141,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,19 +160,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,6 +225,1973 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Planilha de gastos.xlsx]Planilha3!Tabela dinâmica2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha3!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prioridade alta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha3!$A$5:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Academia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alimentação</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Aluguel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Celular</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gás</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>internet</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prestacão do celular</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha3!$B$5:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09D7-4875-9412-0E4681CE8A8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha3!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prioridade baixa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha3!$A$5:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Academia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alimentação</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Aluguel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Celular</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gás</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>internet</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prestacão do celular</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha3!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-09D7-4875-9412-0E4681CE8A8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha3!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prioridade Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha3!$A$5:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Academia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alimentação</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Aluguel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Celular</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gás</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>internet</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prestacão do celular</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha3!$D$5:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-09D7-4875-9412-0E4681CE8A8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1252615135"/>
+        <c:axId val="1358205263"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1252615135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358205263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1358205263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1252615135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion/>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A799DB7-D945-4A78-8407-5A3D2CC61448}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Gráfico 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00AC037B-11AA-4D1D-98DF-C9980D53AF31}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7296150" y="2009775"/>
+              <a:ext cx="3905250" cy="3014662"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fatec" refreshedDate="45162.863247106485" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="7" xr:uid="{EB3C096D-1C38-4D60-AC22-0B4E00942CAD}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B5:D12" sheet="Planilha1"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="luz" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Celular"/>
+        <s v="gás"/>
+        <s v="internet"/>
+        <s v="Prestacão do celular"/>
+        <s v="Academia"/>
+        <s v="Alimentação"/>
+        <s v="Aluguel"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="R$ 50,00" numFmtId="8">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="80" maxValue="1200"/>
+    </cacheField>
+    <cacheField name="Prioridade alta" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Prioridade Média"/>
+        <s v="Prioridade alta"/>
+        <s v="Prioridade baixa"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
+  <r>
+    <x v="0"/>
+    <n v="150"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="160"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="80"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="142"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="90"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="900"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1200"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52735ED4-C244-45FE-8D00-2742BFC56FB7}" name="Tabela dinâmica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:E12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de R$ 50,00" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,134 +2490,347 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF5AFC5-D84D-4D21-8B36-9A46707562D8}">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F60549C-224B-4E87-B19A-8B640B6ABE47}">
+  <dimension ref="A3:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
-        <v>20</v>
+      <c r="B3" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11">
+        <v>90</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="11">
+        <v>900</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1200</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11">
+        <v>150</v>
+      </c>
+      <c r="E8" s="11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11">
+        <v>160</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
+        <v>80</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="J3" s="1"/>
-      <c r="K3" t="s">
-        <v>21</v>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
+        <v>142</v>
+      </c>
+      <c r="E11" s="11">
+        <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="J5" s="4"/>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>19</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2340</v>
+      </c>
+      <c r="C12" s="11">
+        <v>90</v>
+      </c>
+      <c r="D12" s="11">
+        <v>292</v>
+      </c>
+      <c r="E12" s="11">
+        <v>2722</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65752811-CEC4-421B-8C3A-93B41EEC1619}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9">
+        <v>90</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9">
+        <v>50</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5">
+        <f>COUNTIF(D4:D12,G5)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9">
+        <v>150</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6">
+        <f>COUNTIF(D4:D12,G6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9">
+        <v>160</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7">
+        <f>COUNTIF(D4:D12,G7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9">
+        <v>80</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9">
+        <v>142</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9">
+        <v>900</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1200</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3">
+        <f>SUM(C4:C12)</f>
+        <v>2862</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>